--- a/test項目表.xlsx
+++ b/test項目表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\0128プログラミング技法\0204インタプリタ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{276F9307-41A8-4177-BFCC-8EC5BEB8CB12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99EA879-2B63-44C5-9BCD-394D0ED066D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6636" xr2:uid="{2AB75F5F-BD67-481F-8083-EF235847CD79}"/>
   </bookViews>
@@ -383,15 +383,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A7E76-CF1D-4C1A-8D13-CFB3D9B98C10}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="57.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test項目表.xlsx
+++ b/test項目表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\0128プログラミング技法\0204インタプリタ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99EA879-2B63-44C5-9BCD-394D0ED066D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A788EFC-95B2-4F9E-A89E-02127D491345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6636" xr2:uid="{2AB75F5F-BD67-481F-8083-EF235847CD79}"/>
   </bookViews>
@@ -22,6 +22,252 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>画面表示 aaa
+プログラム終了</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実行項目</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実行結果</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し 10
+画面表示 aaa
+プログラム終了</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa
+aaa
+aaa
+aaa
+aaa
+aaa
+aaa
+aaa
+aaa
+aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数作り x=0
+増分 x2
+画面表示 x
+プログラム終了</t>
+    <rPh sb="9" eb="11">
+      <t>ゾウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数は2です。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数作り x=0
+減分 x2
+画面表示 x
+プログラム終了</t>
+    <rPh sb="9" eb="10">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数はー2です。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数作り x=0
+繰り返し 3
+増分 x2
+画面表示 x
+プログラム終了</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウツク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゾウブン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数は6です。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数作り x=0
+繰り返し 3
+減分 x2
+画面表示 x
+プログラム終了</t>
+    <rPh sb="16" eb="17">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数はー6です。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数作り x=3
+画面表示 x
+プログラム終了</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウツク</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数は3です。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四則演算 12+13=
+プログラム終了</t>
+    <rPh sb="0" eb="4">
+      <t>シソクエンザン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四則演算 25-13=
+プログラム終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四則演算 12*10=
+プログラム終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四則演算 10/2=
+プログラム終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増分 x1
+プログラム終了</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数を作ってください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減分 x1
+プログラム終了</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,12 +297,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -65,9 +326,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,89 +650,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A7E76-CF1D-4C1A-8D13-CFB3D9B98C10}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="57.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
